--- a/Gantt Charrt.xlsx
+++ b/Gantt Charrt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\Year 3 - CS\Enterprise Systems Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7940A2D6-15FD-4370-A4BA-A878D7036706}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F632F0-1DD5-4903-A5AA-E861765C96C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{05BAA02C-5730-4964-9B66-623DE30ABFF3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="77">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -237,6 +237,33 @@
   </si>
   <si>
     <t>30 to 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     - Creating Login System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     - Creating JSP Webpages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     - Setting up Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     - Creating Connections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     - Creating Tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     - Creating Sample Data and Applying to Tables in SQL</t>
+  </si>
+  <si>
+    <t>4 days</t>
+  </si>
+  <si>
+    <t>Coding JDBC</t>
+  </si>
+  <si>
+    <t>Tom, Yonis, Abdullah, Joshua</t>
   </si>
 </sst>
 </file>
@@ -451,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -496,6 +523,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -810,15 +840,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70E7E27-0E28-4FF0-8372-AC62BAF4E87B}">
-  <dimension ref="A1:BB53"/>
+  <dimension ref="A1:BB57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="O52" sqref="O52"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26:AI26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -856,7 +886,7 @@
         <v>2</v>
       </c>
       <c r="K1" s="24">
-        <f t="shared" ref="K1:BA1" si="0">(J1+1)</f>
+        <f t="shared" ref="K1:AZ1" si="0">(J1+1)</f>
         <v>3</v>
       </c>
       <c r="L1" s="24">
@@ -1147,11 +1177,11 @@
       <c r="G6" s="2">
         <v>44161</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="8"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="6"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
@@ -1162,86 +1192,67 @@
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2">
         <v>44157</v>
       </c>
       <c r="G7" s="2">
-        <v>44164</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
+        <v>44158</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="46"/>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2">
         <v>44159</v>
       </c>
       <c r="G8" s="2">
-        <v>44164</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
+        <v>44161</v>
+      </c>
+      <c r="K8" s="44"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="46"/>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2">
-        <v>44162</v>
+        <v>44157</v>
       </c>
       <c r="G9" s="2">
-        <v>44163</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="14"/>
+        <v>44164</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="6"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
@@ -1249,508 +1260,552 @@
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2">
         <v>44157</v>
       </c>
       <c r="G10" s="2">
-        <v>44164</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
+        <v>44157</v>
+      </c>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2">
+        <v>44158</v>
+      </c>
+      <c r="G11" s="2">
         <v>44159</v>
       </c>
-      <c r="G11" s="2">
-        <v>44164</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="46"/>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>23</v>
+      <c r="B12" t="s">
+        <v>72</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="G12" s="2">
-        <v>44159</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
+        <v>44160</v>
+      </c>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="G13" s="2">
-        <v>44159</v>
-      </c>
-      <c r="K13" s="11"/>
+        <v>44164</v>
+      </c>
+      <c r="M13" s="44"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="46"/>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F14" s="2">
         <v>44159</v>
       </c>
       <c r="G14" s="2">
-        <v>44159</v>
-      </c>
-      <c r="K14" s="11"/>
+        <v>44164</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2">
+        <v>44162</v>
+      </c>
+      <c r="G15" s="2">
+        <v>44163</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="3">
-        <v>44165</v>
-      </c>
-      <c r="G16" s="3">
-        <v>44184</v>
-      </c>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="22"/>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="22"/>
-      <c r="AJ16" s="22"/>
-      <c r="AK16" s="23"/>
-    </row>
-    <row r="17" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2">
+        <v>44157</v>
+      </c>
+      <c r="G16" s="2">
+        <v>44164</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="2">
+        <v>44159</v>
+      </c>
+      <c r="G17" s="2">
+        <v>44164</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="2">
+        <v>44159</v>
+      </c>
+      <c r="G18" s="2">
+        <v>44159</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="2">
+        <v>44159</v>
+      </c>
+      <c r="G19" s="2">
+        <v>44159</v>
+      </c>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="2">
+        <v>44159</v>
+      </c>
+      <c r="G20" s="2">
+        <v>44159</v>
+      </c>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="3">
         <v>44165</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G22" s="3">
         <v>44184</v>
       </c>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="26"/>
-      <c r="AJ17" s="26"/>
-      <c r="AK17" s="27"/>
-    </row>
-    <row r="18" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="Q22" s="21"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="22"/>
+      <c r="AJ22" s="22"/>
+      <c r="AK22" s="23"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="2">
+        <v>44165</v>
+      </c>
+      <c r="G23" s="2">
+        <v>44184</v>
+      </c>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="27"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C24" t="s">
         <v>28</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F24" s="2">
         <v>44165</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G24" s="2">
         <v>44184</v>
       </c>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="29"/>
-      <c r="AH18" s="29"/>
-      <c r="AI18" s="29"/>
-      <c r="AJ18" s="29"/>
-      <c r="AK18" s="30"/>
-    </row>
-    <row r="19" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="Q24" s="28"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="29"/>
+      <c r="AK24" s="30"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C25" t="s">
         <v>28</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F25" s="2">
         <v>44165</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G25" s="2">
         <v>44184</v>
       </c>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="29"/>
-      <c r="AI19" s="29"/>
-      <c r="AJ19" s="29"/>
-      <c r="AK19" s="30"/>
-    </row>
-    <row r="20" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="Q25" s="28"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="29"/>
+      <c r="AI25" s="29"/>
+      <c r="AJ25" s="29"/>
+      <c r="AK25" s="30"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="2">
+        <v>44165</v>
+      </c>
+      <c r="G26" s="2">
+        <v>44182</v>
+      </c>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="29"/>
+      <c r="AI26" s="30"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C27" t="s">
         <v>33</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D27" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F27" s="2">
         <v>44165</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G27" s="2">
         <v>44182</v>
       </c>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="29"/>
-      <c r="AI20" s="30"/>
-    </row>
-    <row r="21" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="Q27" s="28"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="30"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>46</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C28" t="s">
         <v>33</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D28" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F28" s="2">
         <v>44165</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G28" s="2">
         <v>44182</v>
       </c>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="32"/>
-      <c r="AD21" s="32"/>
-      <c r="AE21" s="32"/>
-      <c r="AF21" s="32"/>
-      <c r="AG21" s="32"/>
-      <c r="AH21" s="32"/>
-      <c r="AI21" s="33"/>
-    </row>
-    <row r="22" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="Q28" s="31"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="32"/>
+      <c r="AH28" s="32"/>
+      <c r="AI28" s="33"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>34</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C29" t="s">
         <v>28</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D29" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F29" s="2">
         <v>44165</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G29" s="2">
         <v>44184</v>
       </c>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="29"/>
-      <c r="AI22" s="29"/>
-      <c r="AJ22" s="29"/>
-      <c r="AK22" s="30"/>
-    </row>
-    <row r="23" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="Q29" s="28"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="29"/>
+      <c r="AI29" s="29"/>
+      <c r="AJ29" s="29"/>
+      <c r="AK29" s="30"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="2">
-        <v>44173</v>
-      </c>
-      <c r="G23" s="2">
-        <v>44173</v>
-      </c>
-      <c r="Q23" s="34"/>
-    </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="2">
-        <v>44173</v>
-      </c>
-      <c r="G24" s="2">
-        <v>44173</v>
-      </c>
-      <c r="Q24" s="34"/>
-    </row>
-    <row r="25" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="2">
-        <v>44173</v>
-      </c>
-      <c r="G25" s="2">
-        <v>44173</v>
-      </c>
-      <c r="Q25" s="34"/>
-    </row>
-    <row r="26" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="2">
-        <v>44173</v>
-      </c>
-      <c r="G26" s="2">
-        <v>44173</v>
-      </c>
-      <c r="Q26" s="34"/>
-    </row>
-    <row r="27" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="2">
-        <v>44183</v>
-      </c>
-      <c r="G27" s="2">
-        <v>44183</v>
-      </c>
-      <c r="AJ27" s="34"/>
-    </row>
-    <row r="28" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="2">
-        <v>44183</v>
-      </c>
-      <c r="G28" s="2">
-        <v>44183</v>
-      </c>
-      <c r="AJ28" s="34"/>
-    </row>
-    <row r="29" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="2">
-        <v>44183</v>
-      </c>
-      <c r="G29" s="2">
-        <v>44183</v>
-      </c>
-      <c r="AJ29" s="34"/>
-    </row>
-    <row r="30" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>44</v>
       </c>
       <c r="C30" t="s">
         <v>24</v>
@@ -1759,16 +1814,16 @@
         <v>25</v>
       </c>
       <c r="F30" s="2">
-        <v>44183</v>
+        <v>44173</v>
       </c>
       <c r="G30" s="2">
-        <v>44183</v>
-      </c>
-      <c r="AJ30" s="34"/>
-    </row>
-    <row r="31" spans="2:37" x14ac:dyDescent="0.25">
+        <v>44173</v>
+      </c>
+      <c r="Q30" s="34"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
@@ -1777,16 +1832,16 @@
         <v>25</v>
       </c>
       <c r="F31" s="2">
-        <v>44183</v>
+        <v>44173</v>
       </c>
       <c r="G31" s="2">
-        <v>44183</v>
-      </c>
-      <c r="AJ31" s="34"/>
-    </row>
-    <row r="32" spans="2:37" x14ac:dyDescent="0.25">
+        <v>44173</v>
+      </c>
+      <c r="Q31" s="34"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
         <v>24</v>
@@ -1795,324 +1850,450 @@
         <v>25</v>
       </c>
       <c r="F32" s="2">
+        <v>44173</v>
+      </c>
+      <c r="G32" s="2">
+        <v>44173</v>
+      </c>
+      <c r="Q32" s="34"/>
+    </row>
+    <row r="33" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="2">
+        <v>44173</v>
+      </c>
+      <c r="G33" s="2">
+        <v>44173</v>
+      </c>
+      <c r="Q33" s="34"/>
+    </row>
+    <row r="34" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="2">
         <v>44183</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G34" s="2">
         <v>44183</v>
       </c>
-      <c r="AJ32" s="34"/>
-    </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="AL33" s="21"/>
-      <c r="AM33" s="22"/>
-      <c r="AN33" s="22"/>
-      <c r="AO33" s="22"/>
-      <c r="AP33" s="22"/>
-      <c r="AQ33" s="22"/>
-      <c r="AR33" s="22"/>
-      <c r="AS33" s="22"/>
-      <c r="AT33" s="22"/>
-      <c r="AU33" s="22"/>
-      <c r="AV33" s="22"/>
-      <c r="AW33" s="22"/>
-      <c r="AX33" s="22"/>
-      <c r="AY33" s="22"/>
-      <c r="AZ33" s="22"/>
-      <c r="BA33" s="23"/>
-    </row>
-    <row r="34" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="2">
-        <v>44202</v>
-      </c>
-      <c r="G34" s="2">
-        <v>44216</v>
-      </c>
-      <c r="AL34" s="40"/>
-      <c r="AM34" s="41"/>
-      <c r="AN34" s="41"/>
-      <c r="AO34" s="41"/>
-      <c r="AP34" s="41"/>
-      <c r="AQ34" s="41"/>
-      <c r="AR34" s="41"/>
-      <c r="AS34" s="41"/>
-      <c r="AT34" s="41"/>
-      <c r="AU34" s="41"/>
-      <c r="AV34" s="41"/>
-      <c r="AW34" s="41"/>
-      <c r="AX34" s="41"/>
-      <c r="AY34" s="41"/>
-      <c r="AZ34" s="42"/>
+      <c r="AJ34" s="34"/>
     </row>
     <row r="35" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
         <v>25</v>
       </c>
       <c r="F35" s="2">
-        <v>44202</v>
+        <v>44183</v>
       </c>
       <c r="G35" s="2">
-        <v>44207</v>
-      </c>
-      <c r="AL35" s="35"/>
-      <c r="AM35" s="36"/>
-      <c r="AN35" s="36"/>
-      <c r="AO35" s="36"/>
-      <c r="AP35" s="36"/>
-      <c r="AQ35" s="37"/>
+        <v>44183</v>
+      </c>
+      <c r="AJ35" s="34"/>
     </row>
     <row r="36" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F36" s="2">
-        <v>44202</v>
+        <v>44183</v>
       </c>
       <c r="G36" s="2">
-        <v>44214</v>
-      </c>
-      <c r="AL36" s="35"/>
-      <c r="AM36" s="36"/>
-      <c r="AN36" s="36"/>
-      <c r="AO36" s="36"/>
-      <c r="AP36" s="36"/>
-      <c r="AQ36" s="36"/>
-      <c r="AR36" s="36"/>
-      <c r="AS36" s="36"/>
-      <c r="AT36" s="36"/>
-      <c r="AU36" s="36"/>
-      <c r="AV36" s="36"/>
-      <c r="AW36" s="36"/>
-      <c r="AX36" s="37"/>
+        <v>44183</v>
+      </c>
+      <c r="AJ36" s="34"/>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F37" s="2">
-        <v>44202</v>
+        <v>44183</v>
       </c>
       <c r="G37" s="2">
-        <v>44214</v>
-      </c>
-      <c r="AL37" s="35"/>
-      <c r="AM37" s="36"/>
-      <c r="AN37" s="36"/>
-      <c r="AO37" s="36"/>
-      <c r="AP37" s="36"/>
-      <c r="AQ37" s="36"/>
-      <c r="AR37" s="36"/>
-      <c r="AS37" s="36"/>
-      <c r="AT37" s="36"/>
-      <c r="AU37" s="36"/>
-      <c r="AV37" s="36"/>
-      <c r="AW37" s="36"/>
-      <c r="AX37" s="37"/>
+        <v>44183</v>
+      </c>
+      <c r="AJ37" s="34"/>
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F38" s="2">
-        <v>44202</v>
+        <v>44183</v>
       </c>
       <c r="G38" s="2">
-        <v>44214</v>
-      </c>
-      <c r="AL38" s="35"/>
-      <c r="AM38" s="36"/>
-      <c r="AN38" s="36"/>
-      <c r="AO38" s="36"/>
-      <c r="AP38" s="36"/>
-      <c r="AQ38" s="36"/>
-      <c r="AR38" s="36"/>
-      <c r="AS38" s="36"/>
-      <c r="AT38" s="36"/>
-      <c r="AU38" s="36"/>
-      <c r="AV38" s="36"/>
-      <c r="AW38" s="36"/>
-      <c r="AX38" s="37"/>
+        <v>44183</v>
+      </c>
+      <c r="AJ38" s="34"/>
     </row>
     <row r="39" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F39" s="2">
-        <v>44207</v>
+        <v>44183</v>
       </c>
       <c r="G39" s="2">
-        <v>44214</v>
-      </c>
-      <c r="AQ39" s="35"/>
-      <c r="AR39" s="36"/>
-      <c r="AS39" s="36"/>
-      <c r="AT39" s="36"/>
-      <c r="AU39" s="36"/>
-      <c r="AV39" s="36"/>
-      <c r="AW39" s="36"/>
-      <c r="AX39" s="37"/>
+        <v>44183</v>
+      </c>
+      <c r="AJ39" s="34"/>
     </row>
     <row r="40" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" s="2">
+      <c r="AL40" s="21"/>
+      <c r="AM40" s="22"/>
+      <c r="AN40" s="22"/>
+      <c r="AO40" s="22"/>
+      <c r="AP40" s="22"/>
+      <c r="AQ40" s="22"/>
+      <c r="AR40" s="22"/>
+      <c r="AS40" s="22"/>
+      <c r="AT40" s="22"/>
+      <c r="AU40" s="22"/>
+      <c r="AV40" s="22"/>
+      <c r="AW40" s="22"/>
+      <c r="AX40" s="22"/>
+      <c r="AY40" s="22"/>
+      <c r="AZ40" s="22"/>
+      <c r="BA40" s="23"/>
+    </row>
+    <row r="41" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="2">
+        <v>44202</v>
+      </c>
+      <c r="G41" s="2">
         <v>44216</v>
       </c>
-      <c r="G40" s="2">
-        <v>44217</v>
-      </c>
-      <c r="AZ40" s="35"/>
-      <c r="BA40" s="37"/>
-    </row>
-    <row r="41" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41" s="2">
-        <v>44206</v>
-      </c>
-      <c r="G41" s="2">
-        <v>44206</v>
-      </c>
-      <c r="AP41" s="39"/>
+      <c r="AL41" s="40"/>
+      <c r="AM41" s="41"/>
+      <c r="AN41" s="41"/>
+      <c r="AO41" s="41"/>
+      <c r="AP41" s="41"/>
+      <c r="AQ41" s="41"/>
+      <c r="AR41" s="41"/>
+      <c r="AS41" s="41"/>
+      <c r="AT41" s="41"/>
+      <c r="AU41" s="41"/>
+      <c r="AV41" s="41"/>
+      <c r="AW41" s="41"/>
+      <c r="AX41" s="41"/>
+      <c r="AY41" s="41"/>
+      <c r="AZ41" s="42"/>
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D42" t="s">
         <v>25</v>
       </c>
       <c r="F42" s="2">
-        <v>44206</v>
+        <v>44202</v>
       </c>
       <c r="G42" s="2">
-        <v>44206</v>
-      </c>
-      <c r="AP42" s="38"/>
+        <v>44207</v>
+      </c>
+      <c r="AL42" s="35"/>
+      <c r="AM42" s="36"/>
+      <c r="AN42" s="36"/>
+      <c r="AO42" s="36"/>
+      <c r="AP42" s="36"/>
+      <c r="AQ42" s="37"/>
     </row>
     <row r="43" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>61</v>
+      <c r="B43" t="s">
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F43" s="2">
-        <v>44215</v>
+        <v>44202</v>
       </c>
       <c r="G43" s="2">
-        <v>44215</v>
-      </c>
-      <c r="AY43" s="39"/>
+        <v>44214</v>
+      </c>
+      <c r="AL43" s="35"/>
+      <c r="AM43" s="36"/>
+      <c r="AN43" s="36"/>
+      <c r="AO43" s="36"/>
+      <c r="AP43" s="36"/>
+      <c r="AQ43" s="36"/>
+      <c r="AR43" s="36"/>
+      <c r="AS43" s="36"/>
+      <c r="AT43" s="36"/>
+      <c r="AU43" s="36"/>
+      <c r="AV43" s="36"/>
+      <c r="AW43" s="36"/>
+      <c r="AX43" s="37"/>
     </row>
     <row r="44" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="2">
+        <v>44202</v>
+      </c>
+      <c r="G44" s="2">
+        <v>44214</v>
+      </c>
+      <c r="AL44" s="35"/>
+      <c r="AM44" s="36"/>
+      <c r="AN44" s="36"/>
+      <c r="AO44" s="36"/>
+      <c r="AP44" s="36"/>
+      <c r="AQ44" s="36"/>
+      <c r="AR44" s="36"/>
+      <c r="AS44" s="36"/>
+      <c r="AT44" s="36"/>
+      <c r="AU44" s="36"/>
+      <c r="AV44" s="36"/>
+      <c r="AW44" s="36"/>
+      <c r="AX44" s="37"/>
+    </row>
+    <row r="45" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="2">
+        <v>44202</v>
+      </c>
+      <c r="G45" s="2">
+        <v>44214</v>
+      </c>
+      <c r="AL45" s="35"/>
+      <c r="AM45" s="36"/>
+      <c r="AN45" s="36"/>
+      <c r="AO45" s="36"/>
+      <c r="AP45" s="36"/>
+      <c r="AQ45" s="36"/>
+      <c r="AR45" s="36"/>
+      <c r="AS45" s="36"/>
+      <c r="AT45" s="36"/>
+      <c r="AU45" s="36"/>
+      <c r="AV45" s="36"/>
+      <c r="AW45" s="36"/>
+      <c r="AX45" s="37"/>
+    </row>
+    <row r="46" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="2">
+        <v>44207</v>
+      </c>
+      <c r="G46" s="2">
+        <v>44214</v>
+      </c>
+      <c r="AQ46" s="35"/>
+      <c r="AR46" s="36"/>
+      <c r="AS46" s="36"/>
+      <c r="AT46" s="36"/>
+      <c r="AU46" s="36"/>
+      <c r="AV46" s="36"/>
+      <c r="AW46" s="36"/>
+      <c r="AX46" s="37"/>
+    </row>
+    <row r="47" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="2">
+        <v>44216</v>
+      </c>
+      <c r="G47" s="2">
+        <v>44217</v>
+      </c>
+      <c r="AZ47" s="35"/>
+      <c r="BA47" s="37"/>
+    </row>
+    <row r="48" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="2">
+        <v>44206</v>
+      </c>
+      <c r="G48" s="2">
+        <v>44206</v>
+      </c>
+      <c r="AP48" s="39"/>
+    </row>
+    <row r="49" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="2">
+        <v>44206</v>
+      </c>
+      <c r="G49" s="2">
+        <v>44206</v>
+      </c>
+      <c r="AP49" s="38"/>
+    </row>
+    <row r="50" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="2">
+        <v>44215</v>
+      </c>
+      <c r="G50" s="2">
+        <v>44215</v>
+      </c>
+      <c r="AY50" s="39"/>
+    </row>
+    <row r="51" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>59</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C51" t="s">
         <v>24</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D51" t="s">
         <v>25</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F51" s="2">
         <v>44215</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G51" s="2">
         <v>44215</v>
       </c>
-      <c r="AY44" s="38"/>
-    </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F49" t="s">
+      <c r="AY51" s="38"/>
+    </row>
+    <row r="53" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
         <v>63</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G53" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E50" t="s">
+    <row r="54" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
         <v>3</v>
       </c>
-      <c r="F50" s="43"/>
-    </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E51" t="s">
+      <c r="F54" s="43"/>
+    </row>
+    <row r="55" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
         <v>0</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="4" t="s">
+      <c r="F55" s="11"/>
+      <c r="G55" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E52" t="s">
+    <row r="56" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="34"/>
-      <c r="G52" s="4" t="s">
+      <c r="F56" s="34"/>
+      <c r="G56" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E53" t="s">
+    <row r="57" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
         <v>36</v>
       </c>
-      <c r="F53" s="39"/>
-      <c r="G53" s="4" t="s">
+      <c r="F57" s="39"/>
+      <c r="G57" s="4" t="s">
         <v>67</v>
       </c>
     </row>

--- a/Gantt Charrt.xlsx
+++ b/Gantt Charrt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\Year 3 - CS\Enterprise Systems Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F632F0-1DD5-4903-A5AA-E861765C96C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62AE8E3-D006-4A4D-8A5E-0AB2C20FA11F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{05BAA02C-5730-4964-9B66-623DE30ABFF3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="79">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>Tom, Yonis, Abdullah, Joshua</t>
+  </si>
+  <si>
+    <t>Creation of Servlets</t>
+  </si>
+  <si>
+    <t>Mohammed</t>
   </si>
 </sst>
 </file>
@@ -339,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -474,11 +480,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -526,6 +550,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70E7E27-0E28-4FF0-8372-AC62BAF4E87B}">
-  <dimension ref="A1:BB57"/>
+  <dimension ref="A1:BB58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26:AI26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,49 +1686,36 @@
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F26" s="2">
         <v>44165</v>
       </c>
       <c r="G26" s="2">
-        <v>44182</v>
-      </c>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="29"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="29"/>
-      <c r="AF26" s="29"/>
-      <c r="AG26" s="29"/>
-      <c r="AH26" s="29"/>
-      <c r="AI26" s="30"/>
+        <v>44168</v>
+      </c>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="12"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="F27" s="2">
         <v>44165</v>
@@ -1731,13 +1745,13 @@
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F28" s="2">
         <v>44165</v>
@@ -1745,85 +1759,103 @@
       <c r="G28" s="2">
         <v>44182</v>
       </c>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="32"/>
-      <c r="AI28" s="33"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="29"/>
+      <c r="AI28" s="30"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F29" s="2">
         <v>44165</v>
       </c>
       <c r="G29" s="2">
+        <v>44182</v>
+      </c>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="32"/>
+      <c r="AD29" s="32"/>
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="32"/>
+      <c r="AG29" s="32"/>
+      <c r="AH29" s="32"/>
+      <c r="AI29" s="33"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="2">
+        <v>44165</v>
+      </c>
+      <c r="G30" s="2">
         <v>44184</v>
       </c>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="29"/>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="29"/>
-      <c r="AI29" s="29"/>
-      <c r="AJ29" s="29"/>
-      <c r="AK29" s="30"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+      <c r="Q30" s="28"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="29"/>
+      <c r="AI30" s="29"/>
+      <c r="AJ30" s="29"/>
+      <c r="AK30" s="30"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="2">
-        <v>44173</v>
-      </c>
-      <c r="G30" s="2">
-        <v>44173</v>
-      </c>
-      <c r="Q30" s="34"/>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>43</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
@@ -1841,7 +1873,7 @@
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
         <v>24</v>
@@ -1859,7 +1891,7 @@
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
         <v>24</v>
@@ -1876,8 +1908,8 @@
       <c r="Q33" s="34"/>
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>39</v>
+      <c r="B34" t="s">
+        <v>38</v>
       </c>
       <c r="C34" t="s">
         <v>24</v>
@@ -1886,16 +1918,16 @@
         <v>25</v>
       </c>
       <c r="F34" s="2">
-        <v>44183</v>
+        <v>44173</v>
       </c>
       <c r="G34" s="2">
-        <v>44183</v>
-      </c>
-      <c r="AJ34" s="34"/>
+        <v>44173</v>
+      </c>
+      <c r="Q34" s="34"/>
     </row>
     <row r="35" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>40</v>
+      <c r="B35" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C35" t="s">
         <v>24</v>
@@ -1913,7 +1945,7 @@
     </row>
     <row r="36" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
         <v>24</v>
@@ -1931,7 +1963,7 @@
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
@@ -1949,7 +1981,7 @@
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
         <v>24</v>
@@ -1967,7 +1999,7 @@
     </row>
     <row r="39" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
         <v>24</v>
@@ -1984,105 +2016,93 @@
       <c r="AJ39" s="34"/>
     </row>
     <row r="40" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="AL40" s="21"/>
-      <c r="AM40" s="22"/>
-      <c r="AN40" s="22"/>
-      <c r="AO40" s="22"/>
-      <c r="AP40" s="22"/>
-      <c r="AQ40" s="22"/>
-      <c r="AR40" s="22"/>
-      <c r="AS40" s="22"/>
-      <c r="AT40" s="22"/>
-      <c r="AU40" s="22"/>
-      <c r="AV40" s="22"/>
-      <c r="AW40" s="22"/>
-      <c r="AX40" s="22"/>
-      <c r="AY40" s="22"/>
-      <c r="AZ40" s="22"/>
-      <c r="BA40" s="23"/>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="2">
+        <v>44183</v>
+      </c>
+      <c r="G40" s="2">
+        <v>44183</v>
+      </c>
+      <c r="AJ40" s="34"/>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="AL41" s="21"/>
+      <c r="AM41" s="22"/>
+      <c r="AN41" s="22"/>
+      <c r="AO41" s="22"/>
+      <c r="AP41" s="22"/>
+      <c r="AQ41" s="22"/>
+      <c r="AR41" s="22"/>
+      <c r="AS41" s="22"/>
+      <c r="AT41" s="22"/>
+      <c r="AU41" s="22"/>
+      <c r="AV41" s="22"/>
+      <c r="AW41" s="22"/>
+      <c r="AX41" s="22"/>
+      <c r="AY41" s="22"/>
+      <c r="AZ41" s="22"/>
+      <c r="BA41" s="23"/>
+    </row>
+    <row r="42" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F41" s="2">
-        <v>44202</v>
-      </c>
-      <c r="G41" s="2">
-        <v>44216</v>
-      </c>
-      <c r="AL41" s="40"/>
-      <c r="AM41" s="41"/>
-      <c r="AN41" s="41"/>
-      <c r="AO41" s="41"/>
-      <c r="AP41" s="41"/>
-      <c r="AQ41" s="41"/>
-      <c r="AR41" s="41"/>
-      <c r="AS41" s="41"/>
-      <c r="AT41" s="41"/>
-      <c r="AU41" s="41"/>
-      <c r="AV41" s="41"/>
-      <c r="AW41" s="41"/>
-      <c r="AX41" s="41"/>
-      <c r="AY41" s="41"/>
-      <c r="AZ41" s="42"/>
-    </row>
-    <row r="42" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" t="s">
-        <v>25</v>
       </c>
       <c r="F42" s="2">
         <v>44202</v>
       </c>
       <c r="G42" s="2">
-        <v>44207</v>
-      </c>
-      <c r="AL42" s="35"/>
-      <c r="AM42" s="36"/>
-      <c r="AN42" s="36"/>
-      <c r="AO42" s="36"/>
-      <c r="AP42" s="36"/>
-      <c r="AQ42" s="37"/>
+        <v>44216</v>
+      </c>
+      <c r="AL42" s="40"/>
+      <c r="AM42" s="41"/>
+      <c r="AN42" s="41"/>
+      <c r="AO42" s="41"/>
+      <c r="AP42" s="41"/>
+      <c r="AQ42" s="41"/>
+      <c r="AR42" s="41"/>
+      <c r="AS42" s="41"/>
+      <c r="AT42" s="41"/>
+      <c r="AU42" s="41"/>
+      <c r="AV42" s="41"/>
+      <c r="AW42" s="41"/>
+      <c r="AX42" s="41"/>
+      <c r="AY42" s="41"/>
+      <c r="AZ42" s="42"/>
     </row>
     <row r="43" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F43" s="2">
         <v>44202</v>
       </c>
       <c r="G43" s="2">
-        <v>44214</v>
+        <v>44207</v>
       </c>
       <c r="AL43" s="35"/>
       <c r="AM43" s="36"/>
       <c r="AN43" s="36"/>
       <c r="AO43" s="36"/>
       <c r="AP43" s="36"/>
-      <c r="AQ43" s="36"/>
-      <c r="AR43" s="36"/>
-      <c r="AS43" s="36"/>
-      <c r="AT43" s="36"/>
-      <c r="AU43" s="36"/>
-      <c r="AV43" s="36"/>
-      <c r="AW43" s="36"/>
-      <c r="AX43" s="37"/>
+      <c r="AQ43" s="37"/>
     </row>
     <row r="44" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
@@ -2112,13 +2132,13 @@
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
         <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F45" s="2">
         <v>44202</v>
@@ -2142,21 +2162,26 @@
     </row>
     <row r="46" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="F46" s="2">
-        <v>44207</v>
+        <v>44202</v>
       </c>
       <c r="G46" s="2">
         <v>44214</v>
       </c>
-      <c r="AQ46" s="35"/>
+      <c r="AL46" s="35"/>
+      <c r="AM46" s="36"/>
+      <c r="AN46" s="36"/>
+      <c r="AO46" s="36"/>
+      <c r="AP46" s="36"/>
+      <c r="AQ46" s="36"/>
       <c r="AR46" s="36"/>
       <c r="AS46" s="36"/>
       <c r="AT46" s="36"/>
@@ -2167,44 +2192,51 @@
     </row>
     <row r="47" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="2">
+        <v>44207</v>
+      </c>
+      <c r="G47" s="2">
+        <v>44214</v>
+      </c>
+      <c r="AQ47" s="35"/>
+      <c r="AR47" s="36"/>
+      <c r="AS47" s="36"/>
+      <c r="AT47" s="36"/>
+      <c r="AU47" s="36"/>
+      <c r="AV47" s="36"/>
+      <c r="AW47" s="36"/>
+      <c r="AX47" s="37"/>
+    </row>
+    <row r="48" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>60</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>19</v>
-      </c>
-      <c r="D47" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47" s="2">
-        <v>44216</v>
-      </c>
-      <c r="G47" s="2">
-        <v>44217</v>
-      </c>
-      <c r="AZ47" s="35"/>
-      <c r="BA47" s="37"/>
-    </row>
-    <row r="48" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" t="s">
-        <v>24</v>
       </c>
       <c r="D48" t="s">
         <v>25</v>
       </c>
       <c r="F48" s="2">
-        <v>44206</v>
+        <v>44216</v>
       </c>
       <c r="G48" s="2">
-        <v>44206</v>
-      </c>
-      <c r="AP48" s="39"/>
+        <v>44217</v>
+      </c>
+      <c r="AZ48" s="35"/>
+      <c r="BA48" s="37"/>
     </row>
     <row r="49" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>62</v>
+      <c r="B49" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C49" t="s">
         <v>24</v>
@@ -2218,11 +2250,11 @@
       <c r="G49" s="2">
         <v>44206</v>
       </c>
-      <c r="AP49" s="38"/>
+      <c r="AP49" s="39"/>
     </row>
     <row r="50" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>61</v>
+      <c r="B50" t="s">
+        <v>62</v>
       </c>
       <c r="C50" t="s">
         <v>24</v>
@@ -2231,16 +2263,16 @@
         <v>25</v>
       </c>
       <c r="F50" s="2">
-        <v>44215</v>
+        <v>44206</v>
       </c>
       <c r="G50" s="2">
-        <v>44215</v>
-      </c>
-      <c r="AY50" s="39"/>
+        <v>44206</v>
+      </c>
+      <c r="AP50" s="38"/>
     </row>
     <row r="51" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>59</v>
+      <c r="B51" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C51" t="s">
         <v>24</v>
@@ -2254,46 +2286,64 @@
       <c r="G51" s="2">
         <v>44215</v>
       </c>
-      <c r="AY51" s="38"/>
-    </row>
-    <row r="53" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="F53" t="s">
+      <c r="AY51" s="39"/>
+    </row>
+    <row r="52" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="2">
+        <v>44215</v>
+      </c>
+      <c r="G52" s="2">
+        <v>44215</v>
+      </c>
+      <c r="AY52" s="38"/>
+    </row>
+    <row r="54" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
         <v>63</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G54" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="54" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="E54" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="43"/>
     </row>
     <row r="55" spans="2:51" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
-        <v>0</v>
-      </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F55" s="43"/>
     </row>
     <row r="56" spans="2:51" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="34"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="11"/>
       <c r="G56" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="2:51" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="34"/>
+      <c r="G57" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
         <v>36</v>
       </c>
-      <c r="F57" s="39"/>
-      <c r="G57" s="4" t="s">
+      <c r="F58" s="39"/>
+      <c r="G58" s="4" t="s">
         <v>67</v>
       </c>
     </row>

--- a/Gantt Charrt.xlsx
+++ b/Gantt Charrt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\Year 3 - CS\Enterprise Systems Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62AE8E3-D006-4A4D-8A5E-0AB2C20FA11F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D55172-C7EE-40CD-8165-C7D0CCF5F722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{05BAA02C-5730-4964-9B66-623DE30ABFF3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="85">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -263,13 +263,31 @@
     <t>Coding JDBC</t>
   </si>
   <si>
-    <t>Tom, Yonis, Abdullah, Joshua</t>
-  </si>
-  <si>
     <t>Creation of Servlets</t>
   </si>
   <si>
     <t>Mohammed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     - Selecting Type of Users and Actions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     - Creating login/registration pages for Members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     - Creating dashboards.</t>
+  </si>
+  <si>
+    <t>10 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     - Allow User to Insert / View Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     - Setting up Connection to Database.</t>
+  </si>
+  <si>
+    <t>Tom, Yonis</t>
   </si>
 </sst>
 </file>
@@ -867,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70E7E27-0E28-4FF0-8372-AC62BAF4E87B}">
-  <dimension ref="A1:BB58"/>
+  <dimension ref="A1:BB70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,7 +896,7 @@
     <col min="2" max="2" width="50.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="17" width="2" bestFit="1" customWidth="1"/>
     <col min="18" max="54" width="3" bestFit="1" customWidth="1"/>
@@ -1686,13 +1704,13 @@
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F26" s="2">
         <v>44165</v>
@@ -1712,16 +1730,16 @@
         <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F27" s="2">
         <v>44165</v>
       </c>
       <c r="G27" s="2">
-        <v>44182</v>
+        <v>44173</v>
       </c>
       <c r="Q27" s="28"/>
       <c r="R27" s="29"/>
@@ -1745,91 +1763,63 @@
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="F28" s="2">
         <v>44165</v>
       </c>
       <c r="G28" s="2">
-        <v>44182</v>
+        <v>44167</v>
       </c>
       <c r="Q28" s="28"/>
       <c r="R28" s="29"/>
       <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="29"/>
-      <c r="AF28" s="29"/>
-      <c r="AG28" s="29"/>
-      <c r="AH28" s="29"/>
-      <c r="AI28" s="30"/>
+      <c r="T28" s="30"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="F29" s="2">
-        <v>44165</v>
+        <v>44168</v>
       </c>
       <c r="G29" s="2">
-        <v>44182</v>
-      </c>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="32"/>
-      <c r="AD29" s="32"/>
-      <c r="AE29" s="32"/>
-      <c r="AF29" s="32"/>
-      <c r="AG29" s="32"/>
-      <c r="AH29" s="32"/>
-      <c r="AI29" s="33"/>
+        <v>44173</v>
+      </c>
+      <c r="U29" s="28"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="30"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F30" s="2">
         <v>44165</v>
       </c>
       <c r="G30" s="2">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="Q30" s="28"/>
       <c r="R30" s="29"/>
@@ -1849,103 +1839,155 @@
       <c r="AF30" s="29"/>
       <c r="AG30" s="29"/>
       <c r="AH30" s="29"/>
-      <c r="AI30" s="29"/>
-      <c r="AJ30" s="29"/>
-      <c r="AK30" s="30"/>
+      <c r="AI30" s="30"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>37</v>
+      <c r="B31" t="s">
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F31" s="2">
-        <v>44173</v>
+        <v>44165</v>
       </c>
       <c r="G31" s="2">
-        <v>44173</v>
-      </c>
-      <c r="Q31" s="34"/>
+        <v>44138</v>
+      </c>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="30"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F32" s="2">
-        <v>44173</v>
+        <v>44169</v>
       </c>
       <c r="G32" s="2">
-        <v>44173</v>
-      </c>
-      <c r="Q32" s="34"/>
+        <v>44172</v>
+      </c>
+      <c r="V32" s="28"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="30"/>
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F33" s="2">
-        <v>44173</v>
+        <v>44143</v>
       </c>
       <c r="G33" s="2">
-        <v>44173</v>
-      </c>
-      <c r="Q33" s="34"/>
+        <v>44182</v>
+      </c>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="29"/>
+      <c r="AF33" s="29"/>
+      <c r="AG33" s="29"/>
+      <c r="AH33" s="29"/>
+      <c r="AI33" s="30"/>
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F34" s="2">
-        <v>44173</v>
+        <v>44165</v>
       </c>
       <c r="G34" s="2">
-        <v>44173</v>
-      </c>
-      <c r="Q34" s="34"/>
+        <v>44182</v>
+      </c>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="32"/>
+      <c r="AA34" s="32"/>
+      <c r="AB34" s="32"/>
+      <c r="AC34" s="32"/>
+      <c r="AD34" s="32"/>
+      <c r="AE34" s="32"/>
+      <c r="AF34" s="32"/>
+      <c r="AG34" s="32"/>
+      <c r="AH34" s="32"/>
+      <c r="AI34" s="33"/>
     </row>
     <row r="35" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>39</v>
+      <c r="B35" t="s">
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F35" s="2">
-        <v>44183</v>
+        <v>44165</v>
       </c>
       <c r="G35" s="2">
-        <v>44183</v>
-      </c>
-      <c r="AJ35" s="34"/>
+        <v>44184</v>
+      </c>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="29"/>
+      <c r="AF35" s="29"/>
+      <c r="AG35" s="29"/>
+      <c r="AH35" s="29"/>
+      <c r="AI35" s="29"/>
+      <c r="AJ35" s="29"/>
+      <c r="AK35" s="30"/>
     </row>
     <row r="36" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>40</v>
+      <c r="B36" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C36" t="s">
         <v>24</v>
@@ -1954,16 +1996,16 @@
         <v>25</v>
       </c>
       <c r="F36" s="2">
-        <v>44183</v>
+        <v>44173</v>
       </c>
       <c r="G36" s="2">
-        <v>44183</v>
-      </c>
-      <c r="AJ36" s="34"/>
+        <v>44173</v>
+      </c>
+      <c r="Q36" s="34"/>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
@@ -1972,16 +2014,16 @@
         <v>25</v>
       </c>
       <c r="F37" s="2">
-        <v>44183</v>
+        <v>44173</v>
       </c>
       <c r="G37" s="2">
-        <v>44183</v>
-      </c>
-      <c r="AJ37" s="34"/>
+        <v>44173</v>
+      </c>
+      <c r="Q37" s="34"/>
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
         <v>24</v>
@@ -1990,16 +2032,16 @@
         <v>25</v>
       </c>
       <c r="F38" s="2">
-        <v>44183</v>
+        <v>44173</v>
       </c>
       <c r="G38" s="2">
-        <v>44183</v>
-      </c>
-      <c r="AJ38" s="34"/>
+        <v>44173</v>
+      </c>
+      <c r="Q38" s="34"/>
     </row>
     <row r="39" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>24</v>
@@ -2008,16 +2050,16 @@
         <v>25</v>
       </c>
       <c r="F39" s="2">
-        <v>44183</v>
+        <v>44173</v>
       </c>
       <c r="G39" s="2">
-        <v>44183</v>
-      </c>
-      <c r="AJ39" s="34"/>
+        <v>44173</v>
+      </c>
+      <c r="Q39" s="34"/>
     </row>
     <row r="40" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>51</v>
+      <c r="B40" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>24</v>
@@ -2034,318 +2076,431 @@
       <c r="AJ40" s="34"/>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="AL41" s="21"/>
-      <c r="AM41" s="22"/>
-      <c r="AN41" s="22"/>
-      <c r="AO41" s="22"/>
-      <c r="AP41" s="22"/>
-      <c r="AQ41" s="22"/>
-      <c r="AR41" s="22"/>
-      <c r="AS41" s="22"/>
-      <c r="AT41" s="22"/>
-      <c r="AU41" s="22"/>
-      <c r="AV41" s="22"/>
-      <c r="AW41" s="22"/>
-      <c r="AX41" s="22"/>
-      <c r="AY41" s="22"/>
-      <c r="AZ41" s="22"/>
-      <c r="BA41" s="23"/>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="2">
+        <v>44183</v>
+      </c>
+      <c r="G41" s="2">
+        <v>44183</v>
+      </c>
+      <c r="AJ41" s="34"/>
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>36</v>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
       </c>
       <c r="F42" s="2">
-        <v>44202</v>
+        <v>44183</v>
       </c>
       <c r="G42" s="2">
-        <v>44216</v>
-      </c>
-      <c r="AL42" s="40"/>
-      <c r="AM42" s="41"/>
-      <c r="AN42" s="41"/>
-      <c r="AO42" s="41"/>
-      <c r="AP42" s="41"/>
-      <c r="AQ42" s="41"/>
-      <c r="AR42" s="41"/>
-      <c r="AS42" s="41"/>
-      <c r="AT42" s="41"/>
-      <c r="AU42" s="41"/>
-      <c r="AV42" s="41"/>
-      <c r="AW42" s="41"/>
-      <c r="AX42" s="41"/>
-      <c r="AY42" s="41"/>
-      <c r="AZ42" s="42"/>
+        <v>44183</v>
+      </c>
+      <c r="AJ42" s="34"/>
     </row>
     <row r="43" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
         <v>25</v>
       </c>
       <c r="F43" s="2">
-        <v>44202</v>
+        <v>44183</v>
       </c>
       <c r="G43" s="2">
-        <v>44207</v>
-      </c>
-      <c r="AL43" s="35"/>
-      <c r="AM43" s="36"/>
-      <c r="AN43" s="36"/>
-      <c r="AO43" s="36"/>
-      <c r="AP43" s="36"/>
-      <c r="AQ43" s="37"/>
+        <v>44183</v>
+      </c>
+      <c r="AJ43" s="34"/>
     </row>
     <row r="44" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F44" s="2">
-        <v>44202</v>
+        <v>44183</v>
       </c>
       <c r="G44" s="2">
-        <v>44214</v>
-      </c>
-      <c r="AL44" s="35"/>
-      <c r="AM44" s="36"/>
-      <c r="AN44" s="36"/>
-      <c r="AO44" s="36"/>
-      <c r="AP44" s="36"/>
-      <c r="AQ44" s="36"/>
-      <c r="AR44" s="36"/>
-      <c r="AS44" s="36"/>
-      <c r="AT44" s="36"/>
-      <c r="AU44" s="36"/>
-      <c r="AV44" s="36"/>
-      <c r="AW44" s="36"/>
-      <c r="AX44" s="37"/>
+        <v>44183</v>
+      </c>
+      <c r="AJ44" s="34"/>
     </row>
     <row r="45" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F45" s="2">
+        <v>44183</v>
+      </c>
+      <c r="G45" s="2">
+        <v>44183</v>
+      </c>
+      <c r="AJ45" s="34"/>
+    </row>
+    <row r="46" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="AL46" s="21"/>
+      <c r="AM46" s="22"/>
+      <c r="AN46" s="22"/>
+      <c r="AO46" s="22"/>
+      <c r="AP46" s="22"/>
+      <c r="AQ46" s="22"/>
+      <c r="AR46" s="22"/>
+      <c r="AS46" s="22"/>
+      <c r="AT46" s="22"/>
+      <c r="AU46" s="22"/>
+      <c r="AV46" s="22"/>
+      <c r="AW46" s="22"/>
+      <c r="AX46" s="22"/>
+      <c r="AY46" s="22"/>
+      <c r="AZ46" s="22"/>
+      <c r="BA46" s="23"/>
+    </row>
+    <row r="47" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="2">
         <v>44202</v>
       </c>
-      <c r="G45" s="2">
-        <v>44214</v>
-      </c>
-      <c r="AL45" s="35"/>
-      <c r="AM45" s="36"/>
-      <c r="AN45" s="36"/>
-      <c r="AO45" s="36"/>
-      <c r="AP45" s="36"/>
-      <c r="AQ45" s="36"/>
-      <c r="AR45" s="36"/>
-      <c r="AS45" s="36"/>
-      <c r="AT45" s="36"/>
-      <c r="AU45" s="36"/>
-      <c r="AV45" s="36"/>
-      <c r="AW45" s="36"/>
-      <c r="AX45" s="37"/>
-    </row>
-    <row r="46" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="2">
-        <v>44202</v>
-      </c>
-      <c r="G46" s="2">
-        <v>44214</v>
-      </c>
-      <c r="AL46" s="35"/>
-      <c r="AM46" s="36"/>
-      <c r="AN46" s="36"/>
-      <c r="AO46" s="36"/>
-      <c r="AP46" s="36"/>
-      <c r="AQ46" s="36"/>
-      <c r="AR46" s="36"/>
-      <c r="AS46" s="36"/>
-      <c r="AT46" s="36"/>
-      <c r="AU46" s="36"/>
-      <c r="AV46" s="36"/>
-      <c r="AW46" s="36"/>
-      <c r="AX46" s="37"/>
-    </row>
-    <row r="47" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" t="s">
-        <v>56</v>
-      </c>
-      <c r="F47" s="2">
-        <v>44207</v>
-      </c>
       <c r="G47" s="2">
-        <v>44214</v>
-      </c>
-      <c r="AQ47" s="35"/>
-      <c r="AR47" s="36"/>
-      <c r="AS47" s="36"/>
-      <c r="AT47" s="36"/>
-      <c r="AU47" s="36"/>
-      <c r="AV47" s="36"/>
-      <c r="AW47" s="36"/>
-      <c r="AX47" s="37"/>
+        <v>44216</v>
+      </c>
+      <c r="AL47" s="40"/>
+      <c r="AM47" s="41"/>
+      <c r="AN47" s="41"/>
+      <c r="AO47" s="41"/>
+      <c r="AP47" s="41"/>
+      <c r="AQ47" s="41"/>
+      <c r="AR47" s="41"/>
+      <c r="AS47" s="41"/>
+      <c r="AT47" s="41"/>
+      <c r="AU47" s="41"/>
+      <c r="AV47" s="41"/>
+      <c r="AW47" s="41"/>
+      <c r="AX47" s="41"/>
+      <c r="AY47" s="41"/>
+      <c r="AZ47" s="42"/>
     </row>
     <row r="48" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D48" t="s">
         <v>25</v>
       </c>
       <c r="F48" s="2">
+        <v>44202</v>
+      </c>
+      <c r="G48" s="2">
+        <v>44207</v>
+      </c>
+      <c r="AL48" s="35"/>
+      <c r="AM48" s="36"/>
+      <c r="AN48" s="36"/>
+      <c r="AO48" s="36"/>
+      <c r="AP48" s="36"/>
+      <c r="AQ48" s="37"/>
+    </row>
+    <row r="49" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="2">
+        <v>44202</v>
+      </c>
+      <c r="G49" s="2">
+        <v>44214</v>
+      </c>
+      <c r="AL49" s="35"/>
+      <c r="AM49" s="36"/>
+      <c r="AN49" s="36"/>
+      <c r="AO49" s="36"/>
+      <c r="AP49" s="36"/>
+      <c r="AQ49" s="36"/>
+      <c r="AR49" s="36"/>
+      <c r="AS49" s="36"/>
+      <c r="AT49" s="36"/>
+      <c r="AU49" s="36"/>
+      <c r="AV49" s="36"/>
+      <c r="AW49" s="36"/>
+      <c r="AX49" s="37"/>
+    </row>
+    <row r="50" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="2">
+        <v>44202</v>
+      </c>
+      <c r="G50" s="2">
+        <v>44214</v>
+      </c>
+      <c r="AL50" s="35"/>
+      <c r="AM50" s="36"/>
+      <c r="AN50" s="36"/>
+      <c r="AO50" s="36"/>
+      <c r="AP50" s="36"/>
+      <c r="AQ50" s="36"/>
+      <c r="AR50" s="36"/>
+      <c r="AS50" s="36"/>
+      <c r="AT50" s="36"/>
+      <c r="AU50" s="36"/>
+      <c r="AV50" s="36"/>
+      <c r="AW50" s="36"/>
+      <c r="AX50" s="37"/>
+    </row>
+    <row r="51" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="2">
+        <v>44202</v>
+      </c>
+      <c r="G51" s="2">
+        <v>44214</v>
+      </c>
+      <c r="AL51" s="35"/>
+      <c r="AM51" s="36"/>
+      <c r="AN51" s="36"/>
+      <c r="AO51" s="36"/>
+      <c r="AP51" s="36"/>
+      <c r="AQ51" s="36"/>
+      <c r="AR51" s="36"/>
+      <c r="AS51" s="36"/>
+      <c r="AT51" s="36"/>
+      <c r="AU51" s="36"/>
+      <c r="AV51" s="36"/>
+      <c r="AW51" s="36"/>
+      <c r="AX51" s="37"/>
+    </row>
+    <row r="52" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="2">
+        <v>44207</v>
+      </c>
+      <c r="G52" s="2">
+        <v>44214</v>
+      </c>
+      <c r="AQ52" s="35"/>
+      <c r="AR52" s="36"/>
+      <c r="AS52" s="36"/>
+      <c r="AT52" s="36"/>
+      <c r="AU52" s="36"/>
+      <c r="AV52" s="36"/>
+      <c r="AW52" s="36"/>
+      <c r="AX52" s="37"/>
+    </row>
+    <row r="53" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="2">
         <v>44216</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G53" s="2">
         <v>44217</v>
       </c>
-      <c r="AZ48" s="35"/>
-      <c r="BA48" s="37"/>
-    </row>
-    <row r="49" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+      <c r="AZ53" s="35"/>
+      <c r="BA53" s="37"/>
+    </row>
+    <row r="54" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C54" t="s">
         <v>24</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D54" t="s">
         <v>25</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F54" s="2">
         <v>44206</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G54" s="2">
         <v>44206</v>
       </c>
-      <c r="AP49" s="39"/>
-    </row>
-    <row r="50" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="AP54" s="39"/>
+    </row>
+    <row r="55" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>62</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C55" t="s">
         <v>24</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D55" t="s">
         <v>25</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F55" s="2">
         <v>44206</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G55" s="2">
         <v>44206</v>
       </c>
-      <c r="AP50" s="38"/>
-    </row>
-    <row r="51" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+      <c r="AP55" s="38"/>
+    </row>
+    <row r="56" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C56" t="s">
         <v>24</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D56" t="s">
         <v>25</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F56" s="2">
         <v>44215</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G56" s="2">
         <v>44215</v>
       </c>
-      <c r="AY51" s="39"/>
-    </row>
-    <row r="52" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="AY56" s="39"/>
+    </row>
+    <row r="57" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>59</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C57" t="s">
         <v>24</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D57" t="s">
         <v>25</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F57" s="2">
         <v>44215</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G57" s="2">
         <v>44215</v>
       </c>
-      <c r="AY52" s="38"/>
-    </row>
-    <row r="54" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="F54" t="s">
+      <c r="AY57" s="38"/>
+    </row>
+    <row r="59" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
         <v>63</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G59" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="E55" t="s">
+    <row r="60" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
         <v>3</v>
       </c>
-      <c r="F55" s="43"/>
-    </row>
-    <row r="56" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="E56" t="s">
+      <c r="F60" s="43"/>
+    </row>
+    <row r="61" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
         <v>0</v>
       </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="4" t="s">
+      <c r="F61" s="11"/>
+      <c r="G61" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="E57" t="s">
+    <row r="62" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="34"/>
-      <c r="G57" s="4" t="s">
+      <c r="F62" s="34"/>
+      <c r="G62" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="E58" t="s">
+    <row r="63" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
         <v>36</v>
       </c>
-      <c r="F58" s="39"/>
-      <c r="G58" s="4" t="s">
+      <c r="F63" s="39"/>
+      <c r="G63" s="4" t="s">
         <v>67</v>
       </c>
+    </row>
+    <row r="66" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="Z66" s="12"/>
+      <c r="AA66" s="12"/>
+      <c r="AB66" s="12"/>
+      <c r="AC66" s="12"/>
+      <c r="AD66" s="12"/>
+      <c r="AE66" s="12"/>
+      <c r="AF66" s="12"/>
+      <c r="AG66" s="12"/>
+      <c r="AH66" s="12"/>
+      <c r="AI66" s="12"/>
+    </row>
+    <row r="70" spans="6:35" x14ac:dyDescent="0.25">
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Gantt Charrt.xlsx
+++ b/Gantt Charrt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\Year 3 - CS\Enterprise Systems Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D55172-C7EE-40CD-8165-C7D0CCF5F722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F8BFCD-FF53-40D4-804F-66AF95E6AF05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{05BAA02C-5730-4964-9B66-623DE30ABFF3}"/>
+    <workbookView xWindow="7350" yWindow="870" windowWidth="17055" windowHeight="13455" xr2:uid="{05BAA02C-5730-4964-9B66-623DE30ABFF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -260,9 +260,6 @@
     <t>4 days</t>
   </si>
   <si>
-    <t>Coding JDBC</t>
-  </si>
-  <si>
     <t>Creation of Servlets</t>
   </si>
   <si>
@@ -288,6 +285,9 @@
   </si>
   <si>
     <t>Tom, Yonis</t>
+  </si>
+  <si>
+    <t>Coding JDBC/JSTL</t>
   </si>
 </sst>
 </file>
@@ -888,7 +888,7 @@
   <dimension ref="A1:BB70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1704,13 +1704,13 @@
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F26" s="2">
         <v>44165</v>
@@ -1727,13 +1727,13 @@
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27" s="2">
         <v>44165</v>
@@ -1763,13 +1763,13 @@
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
         <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28" s="2">
         <v>44165</v>
@@ -1784,13 +1784,13 @@
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F29" s="2">
         <v>44168</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
         <v>74</v>
@@ -1886,10 +1886,10 @@
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>

--- a/Gantt Charrt.xlsx
+++ b/Gantt Charrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Desktop\Year 3 - CS\Enterprise Systems Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad92aa2f3251f1bf/Documents/Year 3 - CS/Enterprise Systems Development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F8BFCD-FF53-40D4-804F-66AF95E6AF05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{8381E925-EC09-459F-BF18-0CF9D7723B09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B159D191-7D6B-485A-9DDE-254B5A53A23F}"/>
   <bookViews>
-    <workbookView xWindow="7350" yWindow="870" windowWidth="17055" windowHeight="13455" xr2:uid="{05BAA02C-5730-4964-9B66-623DE30ABFF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{05BAA02C-5730-4964-9B66-623DE30ABFF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="90">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -288,6 +288,21 @@
   </si>
   <si>
     <t>Coding JDBC/JSTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     - Converting JSTL into Servlets and JDBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     - Updating Patient and Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     - Admin Control Records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     - Producing Weekly Turnover</t>
+  </si>
+  <si>
+    <t>11 days</t>
   </si>
 </sst>
 </file>
@@ -520,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -571,6 +586,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70E7E27-0E28-4FF0-8372-AC62BAF4E87B}">
-  <dimension ref="A1:BB70"/>
+  <dimension ref="A1:BB67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="BE45" sqref="BE45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,7 +916,8 @@
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="17" width="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="54" width="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="53" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
@@ -2193,17 +2211,17 @@
       <c r="G47" s="2">
         <v>44216</v>
       </c>
-      <c r="AL47" s="40"/>
-      <c r="AM47" s="41"/>
-      <c r="AN47" s="41"/>
-      <c r="AO47" s="41"/>
-      <c r="AP47" s="41"/>
-      <c r="AQ47" s="41"/>
-      <c r="AR47" s="41"/>
-      <c r="AS47" s="41"/>
-      <c r="AT47" s="41"/>
-      <c r="AU47" s="41"/>
-      <c r="AV47" s="41"/>
+      <c r="AL47" s="51"/>
+      <c r="AM47" s="50"/>
+      <c r="AN47" s="50"/>
+      <c r="AO47" s="50"/>
+      <c r="AP47" s="50"/>
+      <c r="AQ47" s="50"/>
+      <c r="AR47" s="50"/>
+      <c r="AS47" s="50"/>
+      <c r="AT47" s="50"/>
+      <c r="AU47" s="50"/>
+      <c r="AV47" s="50"/>
       <c r="AW47" s="41"/>
       <c r="AX47" s="41"/>
       <c r="AY47" s="41"/>
@@ -2214,7 +2232,7 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="D48" t="s">
         <v>25</v>
@@ -2223,284 +2241,349 @@
         <v>44202</v>
       </c>
       <c r="G48" s="2">
-        <v>44207</v>
+        <v>44212</v>
       </c>
       <c r="AL48" s="35"/>
       <c r="AM48" s="36"/>
       <c r="AN48" s="36"/>
       <c r="AO48" s="36"/>
       <c r="AP48" s="36"/>
-      <c r="AQ48" s="37"/>
+      <c r="AQ48" s="36"/>
+      <c r="AR48" s="36"/>
+      <c r="AS48" s="36"/>
+      <c r="AT48" s="36"/>
+      <c r="AU48" s="36"/>
+      <c r="AV48" s="37"/>
     </row>
     <row r="49" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F49" s="2">
         <v>44202</v>
       </c>
       <c r="G49" s="2">
-        <v>44214</v>
+        <v>44205</v>
       </c>
       <c r="AL49" s="35"/>
       <c r="AM49" s="36"/>
       <c r="AN49" s="36"/>
-      <c r="AO49" s="36"/>
-      <c r="AP49" s="36"/>
-      <c r="AQ49" s="36"/>
-      <c r="AR49" s="36"/>
-      <c r="AS49" s="36"/>
-      <c r="AT49" s="36"/>
-      <c r="AU49" s="36"/>
-      <c r="AV49" s="36"/>
-      <c r="AW49" s="36"/>
-      <c r="AX49" s="37"/>
+      <c r="AO49" s="37"/>
     </row>
     <row r="50" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F50" s="2">
-        <v>44202</v>
+        <v>44206</v>
       </c>
       <c r="G50" s="2">
-        <v>44214</v>
-      </c>
-      <c r="AL50" s="35"/>
-      <c r="AM50" s="36"/>
-      <c r="AN50" s="36"/>
-      <c r="AO50" s="36"/>
-      <c r="AP50" s="36"/>
+        <v>44208</v>
+      </c>
+      <c r="AP50" s="35"/>
       <c r="AQ50" s="36"/>
-      <c r="AR50" s="36"/>
-      <c r="AS50" s="36"/>
-      <c r="AT50" s="36"/>
-      <c r="AU50" s="36"/>
-      <c r="AV50" s="36"/>
-      <c r="AW50" s="36"/>
-      <c r="AX50" s="37"/>
+      <c r="AR50" s="37"/>
     </row>
     <row r="51" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F51" s="2">
-        <v>44202</v>
+        <v>44206</v>
       </c>
       <c r="G51" s="2">
-        <v>44214</v>
-      </c>
-      <c r="AL51" s="35"/>
-      <c r="AM51" s="36"/>
-      <c r="AN51" s="36"/>
-      <c r="AO51" s="36"/>
-      <c r="AP51" s="36"/>
+        <v>44208</v>
+      </c>
+      <c r="AP51" s="35"/>
       <c r="AQ51" s="36"/>
-      <c r="AR51" s="36"/>
-      <c r="AS51" s="36"/>
-      <c r="AT51" s="36"/>
-      <c r="AU51" s="36"/>
-      <c r="AV51" s="36"/>
-      <c r="AW51" s="36"/>
-      <c r="AX51" s="37"/>
+      <c r="AR51" s="37"/>
     </row>
     <row r="52" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F52" s="2">
-        <v>44207</v>
+        <v>44209</v>
       </c>
       <c r="G52" s="2">
-        <v>44214</v>
-      </c>
-      <c r="AQ52" s="35"/>
-      <c r="AR52" s="36"/>
-      <c r="AS52" s="36"/>
+        <v>44212</v>
+      </c>
+      <c r="AS52" s="35"/>
       <c r="AT52" s="36"/>
       <c r="AU52" s="36"/>
-      <c r="AV52" s="36"/>
-      <c r="AW52" s="36"/>
-      <c r="AX52" s="37"/>
+      <c r="AV52" s="37"/>
     </row>
     <row r="53" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="D53" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F53" s="2">
-        <v>44216</v>
+        <v>44202</v>
       </c>
       <c r="G53" s="2">
-        <v>44217</v>
-      </c>
-      <c r="AZ53" s="35"/>
-      <c r="BA53" s="37"/>
+        <v>44214</v>
+      </c>
+      <c r="AL53" s="35"/>
+      <c r="AM53" s="36"/>
+      <c r="AN53" s="36"/>
+      <c r="AO53" s="36"/>
+      <c r="AP53" s="36"/>
+      <c r="AQ53" s="36"/>
+      <c r="AR53" s="36"/>
+      <c r="AS53" s="36"/>
+      <c r="AT53" s="36"/>
+      <c r="AU53" s="36"/>
+      <c r="AV53" s="36"/>
+      <c r="AW53" s="36"/>
+      <c r="AX53" s="37"/>
     </row>
     <row r="54" spans="2:53" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>58</v>
+      <c r="B54" t="s">
+        <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F54" s="2">
-        <v>44206</v>
+        <v>44202</v>
       </c>
       <c r="G54" s="2">
-        <v>44206</v>
-      </c>
-      <c r="AP54" s="39"/>
+        <v>44214</v>
+      </c>
+      <c r="AL54" s="35"/>
+      <c r="AM54" s="36"/>
+      <c r="AN54" s="36"/>
+      <c r="AO54" s="36"/>
+      <c r="AP54" s="36"/>
+      <c r="AQ54" s="36"/>
+      <c r="AR54" s="36"/>
+      <c r="AS54" s="36"/>
+      <c r="AT54" s="36"/>
+      <c r="AU54" s="36"/>
+      <c r="AV54" s="36"/>
+      <c r="AW54" s="36"/>
+      <c r="AX54" s="37"/>
     </row>
     <row r="55" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F55" s="2">
-        <v>44206</v>
+        <v>44202</v>
       </c>
       <c r="G55" s="2">
-        <v>44206</v>
-      </c>
-      <c r="AP55" s="38"/>
+        <v>44214</v>
+      </c>
+      <c r="AL55" s="35"/>
+      <c r="AM55" s="36"/>
+      <c r="AN55" s="36"/>
+      <c r="AO55" s="36"/>
+      <c r="AP55" s="36"/>
+      <c r="AQ55" s="36"/>
+      <c r="AR55" s="36"/>
+      <c r="AS55" s="36"/>
+      <c r="AT55" s="36"/>
+      <c r="AU55" s="36"/>
+      <c r="AV55" s="36"/>
+      <c r="AW55" s="36"/>
+      <c r="AX55" s="37"/>
     </row>
     <row r="56" spans="2:53" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>61</v>
+      <c r="B56" t="s">
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F56" s="2">
-        <v>44215</v>
+        <v>44212</v>
       </c>
       <c r="G56" s="2">
-        <v>44215</v>
-      </c>
-      <c r="AY56" s="39"/>
+        <v>44216</v>
+      </c>
+      <c r="AQ56" s="12"/>
+      <c r="AR56" s="12"/>
+      <c r="AS56" s="12"/>
+      <c r="AT56" s="12"/>
+      <c r="AU56" s="40"/>
+      <c r="AV56" s="41"/>
+      <c r="AW56" s="41"/>
+      <c r="AX56" s="41"/>
+      <c r="AY56" s="37"/>
     </row>
     <row r="57" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
         <v>25</v>
       </c>
       <c r="F57" s="2">
+        <v>44216</v>
+      </c>
+      <c r="G57" s="2">
+        <v>44217</v>
+      </c>
+      <c r="AZ57" s="35"/>
+      <c r="BA57" s="37"/>
+    </row>
+    <row r="58" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="2">
+        <v>44206</v>
+      </c>
+      <c r="G58" s="2">
+        <v>44206</v>
+      </c>
+      <c r="AP58" s="39"/>
+    </row>
+    <row r="59" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="2">
+        <v>44206</v>
+      </c>
+      <c r="G59" s="2">
+        <v>44206</v>
+      </c>
+      <c r="AP59" s="38"/>
+    </row>
+    <row r="60" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="2">
         <v>44215</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G60" s="2">
         <v>44215</v>
       </c>
-      <c r="AY57" s="38"/>
-    </row>
-    <row r="59" spans="2:53" x14ac:dyDescent="0.25">
-      <c r="F59" t="s">
+      <c r="AY60" s="39"/>
+    </row>
+    <row r="61" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" s="2">
+        <v>44215</v>
+      </c>
+      <c r="G61" s="2">
+        <v>44215</v>
+      </c>
+      <c r="AY61" s="38"/>
+    </row>
+    <row r="63" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
         <v>63</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G63" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="2:53" x14ac:dyDescent="0.25">
-      <c r="E60" t="s">
+    <row r="64" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
         <v>3</v>
       </c>
-      <c r="F60" s="43"/>
-    </row>
-    <row r="61" spans="2:53" x14ac:dyDescent="0.25">
-      <c r="E61" t="s">
+      <c r="F64" s="43"/>
+    </row>
+    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
         <v>0</v>
       </c>
-      <c r="F61" s="11"/>
-      <c r="G61" s="4" t="s">
+      <c r="F65" s="11"/>
+      <c r="G65" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="2:53" x14ac:dyDescent="0.25">
-      <c r="E62" t="s">
+    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
         <v>15</v>
       </c>
-      <c r="F62" s="34"/>
-      <c r="G62" s="4" t="s">
+      <c r="F66" s="34"/>
+      <c r="G66" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="2:53" x14ac:dyDescent="0.25">
-      <c r="E63" t="s">
+    <row r="67" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
         <v>36</v>
       </c>
-      <c r="F63" s="39"/>
-      <c r="G63" s="4" t="s">
+      <c r="F67" s="39"/>
+      <c r="G67" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="66" spans="6:35" x14ac:dyDescent="0.25">
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="Z66" s="12"/>
-      <c r="AA66" s="12"/>
-      <c r="AB66" s="12"/>
-      <c r="AC66" s="12"/>
-      <c r="AD66" s="12"/>
-      <c r="AE66" s="12"/>
-      <c r="AF66" s="12"/>
-      <c r="AG66" s="12"/>
-      <c r="AH66" s="12"/>
-      <c r="AI66" s="12"/>
-    </row>
-    <row r="70" spans="6:35" x14ac:dyDescent="0.25">
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="12"/>
-      <c r="S70" s="12"/>
-      <c r="T70" s="12"/>
-      <c r="U70" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Gantt Charrt.xlsx
+++ b/Gantt Charrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad92aa2f3251f1bf/Documents/Year 3 - CS/Enterprise Systems Development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{8381E925-EC09-459F-BF18-0CF9D7723B09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B159D191-7D6B-485A-9DDE-254B5A53A23F}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{8381E925-EC09-459F-BF18-0CF9D7723B09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{03278CB3-AB2F-46AC-858C-06698159DFFA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{05BAA02C-5730-4964-9B66-623DE30ABFF3}"/>
+    <workbookView xWindow="1560" yWindow="2265" windowWidth="26205" windowHeight="13050" xr2:uid="{05BAA02C-5730-4964-9B66-623DE30ABFF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="91">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -303,13 +303,16 @@
   </si>
   <si>
     <t>11 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     - Converting to MVC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +344,13 @@
     <font>
       <sz val="11"/>
       <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -535,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -588,6 +598,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -902,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70E7E27-0E28-4FF0-8372-AC62BAF4E87B}">
-  <dimension ref="A1:BB67"/>
+  <dimension ref="A1:BB68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="BE45" sqref="BE45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AG47" sqref="AG47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2257,10 +2270,10 @@
     </row>
     <row r="49" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
         <v>25</v>
@@ -2269,36 +2282,38 @@
         <v>44202</v>
       </c>
       <c r="G49" s="2">
-        <v>44205</v>
-      </c>
-      <c r="AL49" s="35"/>
-      <c r="AM49" s="36"/>
-      <c r="AN49" s="36"/>
-      <c r="AO49" s="37"/>
+        <v>44206</v>
+      </c>
+      <c r="AL49" s="52"/>
+      <c r="AM49" s="53"/>
+      <c r="AN49" s="53"/>
+      <c r="AO49" s="53"/>
+      <c r="AP49" s="54"/>
     </row>
     <row r="50" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D50" t="s">
         <v>25</v>
       </c>
       <c r="F50" s="2">
-        <v>44206</v>
+        <v>44202</v>
       </c>
       <c r="G50" s="2">
-        <v>44208</v>
-      </c>
-      <c r="AP50" s="35"/>
-      <c r="AQ50" s="36"/>
-      <c r="AR50" s="37"/>
+        <v>44205</v>
+      </c>
+      <c r="AL50" s="40"/>
+      <c r="AM50" s="41"/>
+      <c r="AN50" s="41"/>
+      <c r="AO50" s="42"/>
     </row>
     <row r="51" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
         <v>20</v>
@@ -2318,58 +2333,48 @@
     </row>
     <row r="52" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F52" s="2">
-        <v>44209</v>
+        <v>44206</v>
       </c>
       <c r="G52" s="2">
-        <v>44212</v>
-      </c>
-      <c r="AS52" s="35"/>
-      <c r="AT52" s="36"/>
-      <c r="AU52" s="36"/>
-      <c r="AV52" s="37"/>
+        <v>44208</v>
+      </c>
+      <c r="AP52" s="35"/>
+      <c r="AQ52" s="36"/>
+      <c r="AR52" s="37"/>
     </row>
     <row r="53" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D53" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F53" s="2">
-        <v>44202</v>
+        <v>44209</v>
       </c>
       <c r="G53" s="2">
-        <v>44214</v>
-      </c>
-      <c r="AL53" s="35"/>
-      <c r="AM53" s="36"/>
-      <c r="AN53" s="36"/>
-      <c r="AO53" s="36"/>
-      <c r="AP53" s="36"/>
-      <c r="AQ53" s="36"/>
-      <c r="AR53" s="36"/>
-      <c r="AS53" s="36"/>
+        <v>44212</v>
+      </c>
+      <c r="AS53" s="35"/>
       <c r="AT53" s="36"/>
       <c r="AU53" s="36"/>
-      <c r="AV53" s="36"/>
-      <c r="AW53" s="36"/>
-      <c r="AX53" s="37"/>
+      <c r="AV53" s="37"/>
     </row>
     <row r="54" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
         <v>57</v>
@@ -2399,13 +2404,13 @@
     </row>
     <row r="55" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
         <v>57</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F55" s="2">
         <v>44202</v>
@@ -2429,70 +2434,82 @@
     </row>
     <row r="56" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D56" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="F56" s="2">
-        <v>44212</v>
+        <v>44202</v>
       </c>
       <c r="G56" s="2">
-        <v>44216</v>
-      </c>
-      <c r="AQ56" s="12"/>
-      <c r="AR56" s="12"/>
-      <c r="AS56" s="12"/>
-      <c r="AT56" s="12"/>
-      <c r="AU56" s="40"/>
-      <c r="AV56" s="41"/>
-      <c r="AW56" s="41"/>
-      <c r="AX56" s="41"/>
-      <c r="AY56" s="37"/>
+        <v>44214</v>
+      </c>
+      <c r="AL56" s="35"/>
+      <c r="AM56" s="36"/>
+      <c r="AN56" s="36"/>
+      <c r="AO56" s="36"/>
+      <c r="AP56" s="36"/>
+      <c r="AQ56" s="36"/>
+      <c r="AR56" s="36"/>
+      <c r="AS56" s="36"/>
+      <c r="AT56" s="36"/>
+      <c r="AU56" s="36"/>
+      <c r="AV56" s="36"/>
+      <c r="AW56" s="36"/>
+      <c r="AX56" s="37"/>
     </row>
     <row r="57" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" s="2">
+        <v>44212</v>
+      </c>
+      <c r="G57" s="2">
+        <v>44216</v>
+      </c>
+      <c r="AQ57" s="12"/>
+      <c r="AR57" s="12"/>
+      <c r="AS57" s="12"/>
+      <c r="AT57" s="12"/>
+      <c r="AU57" s="40"/>
+      <c r="AV57" s="41"/>
+      <c r="AW57" s="41"/>
+      <c r="AX57" s="41"/>
+      <c r="AY57" s="37"/>
+    </row>
+    <row r="58" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>60</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>19</v>
-      </c>
-      <c r="D57" t="s">
-        <v>25</v>
-      </c>
-      <c r="F57" s="2">
-        <v>44216</v>
-      </c>
-      <c r="G57" s="2">
-        <v>44217</v>
-      </c>
-      <c r="AZ57" s="35"/>
-      <c r="BA57" s="37"/>
-    </row>
-    <row r="58" spans="2:53" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" t="s">
-        <v>24</v>
       </c>
       <c r="D58" t="s">
         <v>25</v>
       </c>
       <c r="F58" s="2">
-        <v>44206</v>
+        <v>44216</v>
       </c>
       <c r="G58" s="2">
-        <v>44206</v>
-      </c>
-      <c r="AP58" s="39"/>
+        <v>44217</v>
+      </c>
+      <c r="AZ58" s="35"/>
+      <c r="BA58" s="37"/>
     </row>
     <row r="59" spans="2:53" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>62</v>
+      <c r="B59" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C59" t="s">
         <v>24</v>
@@ -2506,11 +2523,11 @@
       <c r="G59" s="2">
         <v>44206</v>
       </c>
-      <c r="AP59" s="38"/>
+      <c r="AP59" s="39"/>
     </row>
     <row r="60" spans="2:53" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>61</v>
+      <c r="B60" t="s">
+        <v>62</v>
       </c>
       <c r="C60" t="s">
         <v>24</v>
@@ -2519,16 +2536,16 @@
         <v>25</v>
       </c>
       <c r="F60" s="2">
-        <v>44215</v>
+        <v>44206</v>
       </c>
       <c r="G60" s="2">
-        <v>44215</v>
-      </c>
-      <c r="AY60" s="39"/>
+        <v>44206</v>
+      </c>
+      <c r="AP60" s="38"/>
     </row>
     <row r="61" spans="2:53" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>59</v>
+      <c r="B61" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C61" t="s">
         <v>24</v>
@@ -2542,46 +2559,64 @@
       <c r="G61" s="2">
         <v>44215</v>
       </c>
-      <c r="AY61" s="38"/>
-    </row>
-    <row r="63" spans="2:53" x14ac:dyDescent="0.25">
-      <c r="F63" t="s">
+      <c r="AY61" s="39"/>
+    </row>
+    <row r="62" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="2">
+        <v>44215</v>
+      </c>
+      <c r="G62" s="2">
+        <v>44215</v>
+      </c>
+      <c r="AY62" s="38"/>
+    </row>
+    <row r="64" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
         <v>63</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G64" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="64" spans="2:53" x14ac:dyDescent="0.25">
-      <c r="E64" t="s">
-        <v>3</v>
-      </c>
-      <c r="F64" s="43"/>
     </row>
     <row r="65" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
-        <v>0</v>
-      </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F65" s="43"/>
     </row>
     <row r="66" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
-        <v>15</v>
-      </c>
-      <c r="F66" s="34"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="11"/>
       <c r="G66" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="34"/>
+      <c r="G67" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
         <v>36</v>
       </c>
-      <c r="F67" s="39"/>
-      <c r="G67" s="4" t="s">
+      <c r="F68" s="39"/>
+      <c r="G68" s="4" t="s">
         <v>67</v>
       </c>
     </row>
